--- a/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Tank</t>
   </si>
   <si>
-    <t>Len (mm)</t>
-  </si>
-  <si>
     <t>Temp</t>
   </si>
   <si>
@@ -72,6 +69,12 @@
   </si>
   <si>
     <t>NFish</t>
+  </si>
+  <si>
+    <t>Len (cm)</t>
+  </si>
+  <si>
+    <t>Collection</t>
   </si>
 </sst>
 </file>
@@ -405,65 +408,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A3:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Year</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Tank</t>
   </si>
   <si>
-    <t>Temp</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -74,7 +71,31 @@
     <t>Len (cm)</t>
   </si>
   <si>
-    <t>Collection</t>
+    <t>Year Collection</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Trough</t>
+  </si>
+  <si>
+    <t>Release Method</t>
+  </si>
+  <si>
+    <t>Truck Temp</t>
+  </si>
+  <si>
+    <t>River Temp</t>
+  </si>
+  <si>
+    <t>Acclimation Time (mins)</t>
+  </si>
+  <si>
+    <t>Lifestage</t>
+  </si>
+  <si>
+    <t>Weight (Kg)</t>
   </si>
 </sst>
 </file>
@@ -408,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q3"/>
+  <dimension ref="A3:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +442,7 @@
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,43 +456,64 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Groups" sheetId="1" r:id="rId1"/>
+    <sheet name="Individuals" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Year</t>
   </si>
@@ -96,6 +97,18 @@
   </si>
   <si>
     <t>Weight (Kg)</t>
+  </si>
+  <si>
+    <t>PIT Tag</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Tissue (Y/N)</t>
+  </si>
+  <si>
+    <t>Vial</t>
   </si>
 </sst>
 </file>
@@ -431,15 +444,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -511,6 +530,108 @@
       </c>
       <c r="W3" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:X3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>11</v>

--- a/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
@@ -24,6 +24,818 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, eg. 13:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, eg. AB, CD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, eg. AB, CD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. BSR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. 1999 FP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. EQU, Bonell.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, in C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, in C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, units can be (cm) or (mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, units can be (kg) or (g).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, eg. 13:01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, eg. AB, CD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, eg. AB, CD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, can select unit as (cm) or (mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, can set unit as either (kg) or (g)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional, eg. M/F/IT/I</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Stoyel, Quentin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
@@ -96,9 +908,6 @@
     <t>Lifestage</t>
   </si>
   <si>
-    <t>Weight (Kg)</t>
-  </si>
-  <si>
     <t>PIT Tag</t>
   </si>
   <si>
@@ -109,19 +918,35 @@
   </si>
   <si>
     <t>Vial</t>
+  </si>
+  <si>
+    <t>Weight (kg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,9 +984,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,11 +1267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +1352,7 @@
         <v>14</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>13</v>
@@ -538,15 +1364,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,10 +1422,10 @@
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>10</v>
@@ -625,20 +1452,24 @@
         <v>14</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. 1999</t>
         </r>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. Jan</t>
         </r>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. 1</t>
         </r>
@@ -76,7 +76,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, eg. 13:01</t>
         </r>
@@ -89,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, eg. AB, CD</t>
         </r>
@@ -102,7 +102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, eg. AB, CD</t>
         </r>
@@ -115,7 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
@@ -128,7 +128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. BSR</t>
         </r>
@@ -141,7 +141,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. 1999 FP</t>
         </r>
@@ -154,12 +154,44 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. EQU, Bonell.</t>
         </r>
       </text>
     </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>List of the tanks/cups/trays fish were taken from for distributions. 
+Format: 
+Tanks: raw number: 1, 4, 6-9
+Trays: single dot: 1.1, 2.3, 4.5-6.7
+Cups: double dot: 1.1.1, 2.2.2, 3.3.3-4.4.4
+Multiple: 7-9, 1.3, 2.3.4-5.6.7
+Separate items with commas, can use hypens for sequential containers. Use spaces as needed.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -167,48 +199,48 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, in C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, in C</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Optional, in C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Optional, in C</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Optional</t>
+    <comment ref="T3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional, units can be (cm) or (mm)</t>
         </r>
       </text>
     </comment>
@@ -219,33 +251,20 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Optional, units can be (cm) or (mm)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, units can be (kg) or (g).</t>
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+    <comment ref="W3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
@@ -268,7 +287,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. 1999</t>
         </r>
@@ -281,7 +300,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. Jan</t>
         </r>
@@ -294,7 +313,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>eg. 1</t>
         </r>
@@ -307,7 +326,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, eg. 13:01</t>
         </r>
@@ -320,7 +339,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, eg. AB, CD</t>
         </r>
@@ -333,7 +352,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, eg. AB, CD</t>
         </r>
@@ -346,7 +365,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
@@ -359,7 +378,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
@@ -372,7 +391,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, in C</t>
         </r>
@@ -385,7 +404,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, in C</t>
         </r>
@@ -398,7 +417,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
@@ -411,7 +430,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, units can be (cm) or (mm)</t>
         </r>
@@ -424,7 +443,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, units can be (kg) or (g).</t>
         </r>
@@ -437,7 +456,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional, eg. M/F/IT/I</t>
         </r>
@@ -450,7 +469,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
@@ -463,7 +482,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Optional</t>
         </r>
@@ -474,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -558,6 +577,9 @@
   </si>
   <si>
     <t>Weight (kg)</t>
+  </si>
+  <si>
+    <t>Container</t>
   </si>
 </sst>
 </file>
@@ -576,7 +598,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -898,26 +920,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X3"/>
+  <dimension ref="A3:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:V3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="28.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,36 +980,33 @@
         <v>16</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1002,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>

--- a/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
@@ -188,11 +188,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>cups and drawers to be excluded from containers listed. Eg: 3.4 to exclude drawer, 3.4.5 to exclude cup.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
+    <comment ref="S3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="U3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0" shapeId="0">
+    <comment ref="V3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0" shapeId="0">
+    <comment ref="X3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -493,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Year</t>
   </si>
@@ -580,6 +593,9 @@
   </si>
   <si>
     <t>Container</t>
+  </si>
+  <si>
+    <t>Exclude</t>
   </si>
 </sst>
 </file>
@@ -920,26 +936,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W3"/>
+  <dimension ref="A3:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="28.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="25.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -983,30 +999,33 @@
         <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
@@ -244,6 +244,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="T3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Use full name
+Eg. Fry/Parr/Smolt</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="U3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -433,6 +447,20 @@
             <family val="2"/>
           </rPr>
           <t>Optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Use full name
+Eg. Fry/Parr/Smolt</t>
         </r>
       </text>
     </comment>
@@ -938,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
@@ -201,11 +201,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Enter trough names here if distributing from troughs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Optional</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
+    <comment ref="S3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="U3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0" shapeId="0">
+    <comment ref="V3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0">
+    <comment ref="W3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="0" shapeId="0">
+    <comment ref="Y3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +547,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Year</t>
   </si>
@@ -964,26 +977,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X3"/>
+  <dimension ref="A3:Y3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="28.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="14" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="25.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,30 +1043,33 @@
         <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1068,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>

--- a/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
@@ -169,6 +169,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Optional, If filled, must match mark in database e.g. Adipose Clip
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>List of the tanks/cups/trays fish were taken from for distributions. 
 Format: 
 Tanks: raw number: 1, 4, 6-9
@@ -179,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="0" shapeId="0">
+    <comment ref="P3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="Q3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0">
+    <comment ref="R3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
+    <comment ref="S3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -231,7 +245,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="U3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0" shapeId="0">
+    <comment ref="V3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0">
+    <comment ref="W3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0" shapeId="0">
+    <comment ref="X3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="0" shapeId="0">
+    <comment ref="Z3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -472,12 +486,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Optional, If filled, must match mark in database e.g. Adipose Clip
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Use full name
 Eg. Fry/Parr/Smolt</t>
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="U3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0" shapeId="0">
+    <comment ref="V3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0">
+    <comment ref="W3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0" shapeId="0">
+    <comment ref="X3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="0" shapeId="0">
+    <comment ref="Y3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -547,7 +575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
@@ -637,6 +665,9 @@
   </si>
   <si>
     <t>Exclude</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
 </sst>
 </file>
@@ -977,26 +1008,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Y3"/>
+  <dimension ref="A3:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="28.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="14" max="16" width="25.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="25.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,39 +1068,42 @@
         <v>16</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1082,9 +1116,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X4"/>
+  <dimension ref="A3:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -1095,14 +1129,15 @@
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" customWidth="1"/>
+    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,25 +1193,28 @@
         <v>21</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
     </row>
   </sheetData>

--- a/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
+++ b/bio_diversity/static/data_templates/mactaquac-distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056AC23A-AB8B-4715-AAED-82044E857DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D148C-C0F2-47CC-827B-32D2ECDC3A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
@@ -199,21 +199,12 @@
     <t>Cups and drawers to be excluded from containers listed. Eg: 3.4 to exclude drawer, 3.4.5 to exclude cup.</t>
   </si>
   <si>
-    <t>Enter trough names here if distributing from troughs. Eg. 4, 5, 6</t>
-  </si>
-  <si>
     <t>Optional. Eg. 4</t>
   </si>
   <si>
     <t xml:space="preserve">Pit Tag. </t>
   </si>
   <si>
-    <t xml:space="preserve">Optional. Containers fish were taken from. </t>
-  </si>
-  <si>
-    <t>Optional. Container fish were taken from.</t>
-  </si>
-  <si>
     <t>Use full name. Eg. Fry, Smolt, Parr</t>
   </si>
   <si>
@@ -221,6 +212,15 @@
   </si>
   <si>
     <t>Optional</t>
+  </si>
+  <si>
+    <t>Optional. Containers fish were taken from.  E.g. LP1</t>
+  </si>
+  <si>
+    <t>Optional. Container fish were taken from.  E.g. TR1</t>
+  </si>
+  <si>
+    <t>Enter trough names here if distributing from troughs. Eg.TR 4,TR 5,TR6</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Z3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +748,7 @@
         <v>54</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>46</v>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -919,16 +919,16 @@
         <v>40</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>46</v>
@@ -946,7 +946,7 @@
         <v>44</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>50</v>
@@ -955,10 +955,10 @@
         <v>51</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>53</v>
